--- a/biology/Médecine/Choc_hypovolémique/Choc_hypovolémique.xlsx
+++ b/biology/Médecine/Choc_hypovolémique/Choc_hypovolémique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Choc_hypovol%C3%A9mique</t>
+          <t>Choc_hypovolémique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le choc hypovolémique est un type de choc circulatoire dû à une insuffisance de sang ou de liquide dans les vaisseaux sanguins [3]. C'est à tel point que le flux sanguin vers les tissus corporels est insuffisant [3]. Au début, les symptômes comprennent généralement une faiblesse, une tension pulsée réduite et une fréquence cardiaque rapide[1],[3]. À mesure que l'état s'aggrave, une hypotension artérielle, une confusion ou une agitation peuvent survenir [1]. Les complications peuvent inclure des anomalies électrolytiques, une insuffisance rénale et une défaillance multiviscérale[1].
-Un choc hypovolémique peut survenir à cause d'une perte de liquide ou d'une perte de sang. Cette dernière est connue sous le nom de choc hémorragique [1]. Une perte de liquide peut survenir en raison de vomissements, de diarrhée, d'une production excessive d'urine, d'un temps chaud ou d'une pancréatite [1]. Une perte de sang peut survenir en raison d' un traumatisme, d'une hémorragie gastro-intestinale ou d'une grossesse extra-utérine [1]. Le diagnostic est souvent basé sur les symptômes et l’histoire des événements [1].
-Le traitement dépend du type de liquide perdu [1]. Pour ceux et celles qui ont perdu trop de sang, l’arrêt des saignements, les produits sanguins, l’acide tranexamique et la chirurgie sont généralement recommandés [4]. Pour ceux qui ont perdu d’autres liquides, des liquides intraveineux sous forme de solution cristalloïde sont généralement utilisés [1]. La cause sous-jacente doit également être abordée [1]. La fréquence à laquelle survient le choc hypovolémique n’est pas claire [1]. Il s’agit du type de choc le plus courant à la suite d'une blessure et chez les enfants [1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le choc hypovolémique est un type de choc circulatoire dû à une insuffisance de sang ou de liquide dans les vaisseaux sanguins . C'est à tel point que le flux sanguin vers les tissus corporels est insuffisant . Au début, les symptômes comprennent généralement une faiblesse, une tension pulsée réduite et une fréquence cardiaque rapide,. À mesure que l'état s'aggrave, une hypotension artérielle, une confusion ou une agitation peuvent survenir . Les complications peuvent inclure des anomalies électrolytiques, une insuffisance rénale et une défaillance multiviscérale.
+Un choc hypovolémique peut survenir à cause d'une perte de liquide ou d'une perte de sang. Cette dernière est connue sous le nom de choc hémorragique . Une perte de liquide peut survenir en raison de vomissements, de diarrhée, d'une production excessive d'urine, d'un temps chaud ou d'une pancréatite . Une perte de sang peut survenir en raison d' un traumatisme, d'une hémorragie gastro-intestinale ou d'une grossesse extra-utérine . Le diagnostic est souvent basé sur les symptômes et l’histoire des événements .
+Le traitement dépend du type de liquide perdu . Pour ceux et celles qui ont perdu trop de sang, l’arrêt des saignements, les produits sanguins, l’acide tranexamique et la chirurgie sont généralement recommandés . Pour ceux qui ont perdu d’autres liquides, des liquides intraveineux sous forme de solution cristalloïde sont généralement utilisés . La cause sous-jacente doit également être abordée . La fréquence à laquelle survient le choc hypovolémique n’est pas claire . Il s’agit du type de choc le plus courant à la suite d'une blessure et chez les enfants ,.
 </t>
         </is>
       </c>
